--- a/صيدليات دكتور مصطفي طلعت_2026-01-13_16-11.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-13_16-11.xlsx
@@ -113,6 +113,9 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
     <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -225,6 +228,9 @@
   </si>
   <si>
     <t>12:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قطن 250 جم </t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -1228,7 +1234,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1248,13 +1254,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1266,7 +1272,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1274,17 +1280,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1300,13 +1306,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>55.670000000000002</v>
+        <v>29</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1326,17 +1332,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>74</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1352,13 +1358,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1378,13 +1384,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1404,13 +1410,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1436,7 +1442,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1456,13 +1462,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1488,7 +1494,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1508,17 +1514,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1526,7 +1532,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1534,17 +1540,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1560,17 +1566,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1578,7 +1584,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1586,17 +1592,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>36</v>
+        <v>440</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1604,7 +1610,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1612,17 +1618,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1630,7 +1636,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1638,17 +1644,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1664,13 +1670,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1690,13 +1696,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1716,13 +1722,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1742,17 +1748,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1760,7 +1766,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1768,17 +1774,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>22.5</v>
+        <v>17</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1786,7 +1792,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1794,17 +1800,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>50</v>
+        <v>22.5</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1820,17 +1826,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1846,17 +1852,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1864,7 +1870,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1872,17 +1878,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1890,7 +1896,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1898,17 +1904,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1916,7 +1922,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1924,13 +1930,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -1942,7 +1948,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1950,13 +1956,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -1964,37 +1970,89 @@
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
-      <c r="K48" s="10">
-        <v>2855.4499999999998</v>
-      </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-    </row>
-    <row r="49" ht="17.25" customHeight="1">
-      <c t="s" r="A49" s="11">
+      <c r="A48" s="6">
+        <v>45</v>
+      </c>
+      <c t="s" r="B48" s="7">
+        <v>76</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c t="s" r="H48" s="8">
         <v>77</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c t="s" r="F49" s="12">
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="9">
+        <v>24</v>
+      </c>
+      <c r="M48" s="9"/>
+      <c t="s" r="N48" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" ht="24.75" customHeight="1">
+      <c r="A49" s="6">
+        <v>46</v>
+      </c>
+      <c t="s" r="B49" s="7">
         <v>78</v>
       </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="13"/>
-      <c t="s" r="I49" s="14">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c t="s" r="H49" s="8">
+        <v>21</v>
+      </c>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="9">
+        <v>20</v>
+      </c>
+      <c r="M49" s="9"/>
+      <c t="s" r="N49" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" ht="26.25" customHeight="1">
+      <c r="K50" s="10">
+        <v>3062.4499999999998</v>
+      </c>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="11">
         <v>79</v>
       </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c t="s" r="F51" s="12">
+        <v>80</v>
+      </c>
+      <c r="G51" s="12"/>
+      <c r="H51" s="13"/>
+      <c t="s" r="I51" s="14">
+        <v>81</v>
+      </c>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="143">
+  <mergeCells count="149">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2134,10 +2192,16 @@
     <mergeCell ref="B47:G47"/>
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="I51:N51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
